--- a/KPI_Status_Trend_.xlsx
+++ b/KPI_Status_Trend_.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLAP_Cube_Question12346\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{AE9D3EFE-E471-446E-8F20-EAA6F11AF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0261E2-FBAF-419E-9F57-EE606EE99A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmpB8C9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId2"/>
+    <pivotCache cacheId="45" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\MON\AppData\Local\Temp\tmpB8C9.odc" keepAlive="1" name="DESKTOP-ED2S73F\SOPHIEPHAM CUBE_QUESTION12346_DATH" type="5" refreshedVersion="7" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\MON\AppData\Local\Temp\tmpB8C9.odc" keepAlive="1" name="DESKTOP-ED2S73F\SOPHIEPHAM CUBE_QUESTION12346_DATH" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CUBE_QUESTION12346_DATH;Data Source=DESKTOP-ED2S73F\SOPHIEPHAM;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="QLBI Ques6 DDS" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="23">
   <si>
     <t>All Number Of Casualties By Years</t>
   </si>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -599,6 +599,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -659,7 +662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="LONG PHAM" refreshedDate="44562.935572453702" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="LONG PHAM" refreshedDate="44563.372168981485" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF25000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="14">
     <cacheField name="[Measures].[All Number Of Casualties By Years]" caption="All Number Of Casualties By Years" numFmtId="0" hierarchy="14" level="32767"/>
@@ -671,13 +674,6 @@
         <s v="[Dim Age Group Ques 6].[Description_AgeGroup].&amp;[Children: 0 - 15]" c="Children: 0 - 15"/>
         <s v="[Dim Age Group Ques 6].[Description_AgeGroup].&amp;[Young adult: 15 - 17]" c="Young adult: 15 - 17"/>
         <s v="[Dim Age Group Ques 6].[Description_AgeGroup].[All].[AVG Number Of Casualities]" c="AVG Number Of Casualities"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Casualties Severity Ques 6].[Description_CSQues6].[Description_CSQues6]" caption="Description_CSQues6" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="3">
-        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Fatal]" c="Fatal"/>
-        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Serious]" c="Serious"/>
-        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Slight]" c="Slight"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Year]" caption="Year" numFmtId="0" hierarchy="9" level="1">
@@ -739,10 +735,21 @@
           <x v="3"/>
         </s>
       </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Month]" caption="Month" numFmtId="0" hierarchy="9" level="3" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Dim Date Ques 6].[Ques6_Calendar].[Month].&amp;[1]&amp;[2011]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Dim Date Ques 6].[Ques6_Calendar].[Month].&amp;[2]&amp;[2011]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Dim Date Ques 6].[Ques6_Calendar].[Month].&amp;[3]&amp;[2011]" c="3" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
       <mpMap v="8"/>
-    </cacheField>
-    <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Month]" caption="Month" numFmtId="0" hierarchy="9" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Day]" caption="Day" numFmtId="0" hierarchy="9" level="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
@@ -756,7 +763,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Month].[Quarter]" caption="Quarter" propertyName="Quarter" numFmtId="0" hierarchy="9" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+      <sharedItems count="1">
+        <s v="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="[Dim Date Ques 6].[Ques6_Calendar].[Day].[Month]" caption="Month" propertyName="Month" numFmtId="0" hierarchy="9" level="4" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
@@ -764,6 +773,13 @@
     <cacheField name="[Measures].[KPI Goal]" caption="KPI (Goal)" numFmtId="0" hierarchy="16" level="32767"/>
     <cacheField name="[Measures].[KPI Status]" caption="KPI (Status)" numFmtId="0" hierarchy="17" level="32767"/>
     <cacheField name="[Measures].[KPI Trend]" caption="KPI (Trend)" numFmtId="0" hierarchy="18" level="32767"/>
+    <cacheField name="[Dim Casualties Severity Ques 6].[Description_CSQues6].[Description_CSQues6]" caption="Description_CSQues6" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="3">
+        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Fatal]" c="Fatal"/>
+        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Serious]" c="Serious"/>
+        <s v="[Dim Casualties Severity Ques 6].[Description_CSQues6].&amp;[Slight]" c="Slight"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="19">
     <cacheHierarchy uniqueName="[Dim Age Group Ques 6].[Description_AgeGroup]" caption="Description_AgeGroup" attribute="1" defaultMemberUniqueName="[Dim Age Group Ques 6].[Description_AgeGroup].[All]" allUniqueName="[Dim Age Group Ques 6].[Description_AgeGroup].[All]" dimensionUniqueName="[Dim Age Group Ques 6]" displayFolder="" count="2" unbalanced="0">
@@ -776,11 +792,11 @@
     <cacheHierarchy uniqueName="[Dim Casualties Severity Ques 6].[Description_CSQues6]" caption="Description_CSQues6" attribute="1" defaultMemberUniqueName="[Dim Casualties Severity Ques 6].[Description_CSQues6].[All]" allUniqueName="[Dim Casualties Severity Ques 6].[Description_CSQues6].[All]" dimensionUniqueName="[Dim Casualties Severity Ques 6]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="13"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Casualties Severity Ques 6].[SK Casualty Severity]" caption="SK Casualty Severity" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Casualties Severity Ques 6].[SK Casualty Severity].[All]" allUniqueName="[Dim Casualties Severity Ques 6].[SK Casualty Severity].[All]" dimensionUniqueName="[Dim Casualties Severity Ques 6]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Casualty Type Ques 6].[Description_CType]" caption="Description_CType" attribute="1" defaultMemberUniqueName="[Dim Casualty Type Ques 6].[Description_CType].[All]" allUniqueName="[Dim Casualty Type Ques 6].[Description_CType].[All]" dimensionUniqueName="[Dim Casualty Type Ques 6]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Casualty Type Ques 6].[Description_CType]" caption="Description_CType" attribute="1" defaultMemberUniqueName="[Dim Casualty Type Ques 6].[Description_CType].[All]" allUniqueName="[Dim Casualty Type Ques 6].[Description_CType].[All]" dimensionUniqueName="[Dim Casualty Type Ques 6]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Casualty Type Ques 6].[SK Casualty Type]" caption="SK Casualty Type" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Casualty Type Ques 6].[SK Casualty Type].[All]" allUniqueName="[Dim Casualty Type Ques 6].[SK Casualty Type].[All]" dimensionUniqueName="[Dim Casualty Type Ques 6]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Date Ques 6].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim Date Ques 6].[Day].[All]" allUniqueName="[Dim Date Ques 6].[Day].[All]" dimensionUniqueName="[Dim Date Ques 6]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Date Ques 6].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim Date Ques 6].[Month].[All]" allUniqueName="[Dim Date Ques 6].[Month].[All]" dimensionUniqueName="[Dim Date Ques 6]" displayFolder="" count="0" unbalanced="0"/>
@@ -788,10 +804,10 @@
     <cacheHierarchy uniqueName="[Dim Date Ques 6].[Ques6_Calendar]" caption="Ques6_Calendar" defaultMemberUniqueName="[Dim Date Ques 6].[Ques6_Calendar].[All]" allUniqueName="[Dim Date Ques 6].[Ques6_Calendar].[All]" dimensionUniqueName="[Dim Date Ques 6]" displayFolder="" count="5" unbalanced="0">
       <fieldsUsage count="5">
         <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
         <fieldUsage x="4"/>
         <fieldUsage x="5"/>
         <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Date Ques 6].[SK Date]" caption="SK Date" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Date Ques 6].[SK Date].[All]" allUniqueName="[Dim Date Ques 6].[SK Date].[All]" dimensionUniqueName="[Dim Date Ques 6]" displayFolder="" count="0" unbalanced="0"/>
@@ -810,17 +826,17 @@
     <cacheHierarchy uniqueName="[Measures].[___KPI Value]" caption="KPI" measure="1" displayFolder="" measureGroup="Fact Table Ques 6" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[KPI Goal]" caption="KPI (Goal)" measure="1" displayFolder="" measureGroup="Fact Table Ques 6" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="11"/>
+        <fieldUsage x="10"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[KPI Status]" caption="KPI (Status)" measure="1" iconSet="7" displayFolder="" measureGroup="Fact Table Ques 6" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="11"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[KPI Trend]" caption="KPI (Trend)" measure="1" iconSet="3" displayFolder="" measureGroup="Fact Table Ques 6" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="13"/>
+        <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
   </cacheHierarchies>
@@ -852,8 +868,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:F322" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:F367" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -866,13 +882,6 @@
         <item x="4"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="4">
         <item c="1" x="0" d="1"/>
@@ -883,7 +892,7 @@
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="16">
-        <item c="1" x="0"/>
+        <item c="1" x="0" d="1"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
         <item c="1" x="3"/>
@@ -901,7 +910,13 @@
         <item c="1" x="15"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -909,14 +924,22 @@
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="4">
+  <rowFields count="5">
     <field x="2"/>
+    <field x="13"/>
     <field x="3"/>
     <field x="4"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="321">
+  <rowItems count="366">
     <i>
       <x/>
     </i>
@@ -929,6 +952,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -992,6 +1024,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1055,6 +1096,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1121,6 +1171,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1184,6 +1243,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1247,6 +1315,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1313,6 +1390,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1376,6 +1462,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1439,6 +1534,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1505,6 +1609,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1568,6 +1681,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1631,6 +1753,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1697,6 +1828,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1760,6 +1900,15 @@
     <i r="3">
       <x/>
     </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
     <i r="3">
       <x v="1"/>
     </i>
@@ -1822,6 +1971,15 @@
     </i>
     <i r="3">
       <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
     </i>
     <i r="3">
       <x v="1"/>
@@ -1904,28 +2062,28 @@
   <dataFields count="5">
     <dataField fld="0" baseField="0" baseItem="0"/>
     <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField name="KPI Đích" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="KPI Trạng thái" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="KPI Xu hướng" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="KPI Đích" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="KPI Trạng thái" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="KPI Xu hướng" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat scope="data" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat scope="data" priority="2">
       <pivotAreas count="1">
         <pivotArea outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
               <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat scope="data" priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
@@ -1944,9 +2102,9 @@
     <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="3">
+        <mp field="7"/>
         <mp field="8"/>
         <mp field="9"/>
-        <mp field="10"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -2276,11 +2434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,6 +2449,31 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2347,51 +2530,41 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
+      <c r="A6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>188</v>
       </c>
       <c r="C6" s="1">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
       <c r="E6" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
+      <c r="A7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>188</v>
       </c>
       <c r="C7" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
@@ -2404,50 +2577,60 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>188</v>
       </c>
       <c r="C8" s="1">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>188</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>0.2</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>-1</v>
@@ -2455,13 +2638,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
         <v>0.2</v>
@@ -2470,64 +2653,68 @@
         <v>-1</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>177</v>
       </c>
       <c r="C13" s="1">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>177</v>
+      </c>
+      <c r="C14" s="1">
         <v>44</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>0.2</v>
@@ -2535,19 +2722,17 @@
       <c r="E15" s="1">
         <v>-1</v>
       </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>0.2</v>
@@ -2555,39 +2740,27 @@
       <c r="E16" s="1">
         <v>-1</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <v>161</v>
-      </c>
-      <c r="C17" s="1">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>161</v>
       </c>
       <c r="C18" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
         <v>0.2</v>
@@ -2596,28 +2769,38 @@
         <v>-1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>0.2</v>
@@ -2625,57 +2808,49 @@
       <c r="E20" s="1">
         <v>-1</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
         <v>0.2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>174</v>
-      </c>
-      <c r="C22" s="1">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <v>174</v>
       </c>
       <c r="C23" s="1">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>0.2</v>
@@ -2683,129 +2858,127 @@
       <c r="E23" s="1">
         <v>-1</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>174</v>
+      </c>
+      <c r="C25" s="1">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>1274</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1274</v>
-      </c>
-      <c r="C27" s="1">
-        <v>304</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1274</v>
-      </c>
-      <c r="C28" s="1">
-        <v>326</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
         <v>1274</v>
       </c>
-      <c r="C29" s="1">
-        <v>361</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>19</v>
+      <c r="A31" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B31" s="1">
-        <v>1228</v>
+        <v>1274</v>
       </c>
       <c r="C31" s="1">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1">
         <v>0.45</v>
@@ -2818,14 +2991,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>20</v>
+      <c r="A32" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>1228</v>
+        <v>1274</v>
       </c>
       <c r="C32" s="1">
-        <v>273</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1">
         <v>0.45</v>
@@ -2834,18 +3007,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
-        <v>1228</v>
+        <v>1274</v>
       </c>
       <c r="C33" s="1">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D33" s="1">
         <v>0.45</v>
@@ -2859,63 +3032,63 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1274</v>
+      </c>
+      <c r="C34" s="1">
+        <v>326</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1">
-        <v>1228</v>
-      </c>
-      <c r="C34" s="1">
-        <v>346</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="1">
+        <v>1274</v>
+      </c>
+      <c r="C35" s="1">
+        <v>361</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1260</v>
-      </c>
-      <c r="C36" s="1">
-        <v>231</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1">
-        <v>1260</v>
+        <v>1228</v>
       </c>
       <c r="C37" s="1">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="D37" s="1">
         <v>0.45</v>
@@ -2924,18 +3097,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
-        <v>1260</v>
+        <v>1228</v>
       </c>
       <c r="C38" s="1">
-        <v>351</v>
+        <v>273</v>
       </c>
       <c r="D38" s="1">
         <v>0.45</v>
@@ -2944,68 +3117,68 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1228</v>
+      </c>
+      <c r="C39" s="1">
+        <v>311</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="1">
-        <v>1260</v>
-      </c>
-      <c r="C39" s="1">
-        <v>352</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="B40" s="1">
+        <v>1228</v>
+      </c>
+      <c r="C40" s="1">
+        <v>346</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1445</v>
-      </c>
-      <c r="C41" s="1">
-        <v>354</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1">
-        <v>1445</v>
+        <v>1260</v>
       </c>
       <c r="C42" s="1">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="D42" s="1">
         <v>0.45</v>
@@ -3019,13 +3192,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
-        <v>1445</v>
+        <v>1260</v>
       </c>
       <c r="C43" s="1">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D43" s="1">
         <v>0.45</v>
@@ -3039,37 +3212,47 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C44" s="1">
+        <v>351</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="1">
-        <v>1445</v>
-      </c>
-      <c r="C44" s="1">
-        <v>411</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C45" s="1">
+        <v>352</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3082,13 +3265,13 @@
         <v>19</v>
       </c>
       <c r="B47" s="1">
-        <v>6875</v>
+        <v>1445</v>
       </c>
       <c r="C47" s="1">
-        <v>1470</v>
+        <v>354</v>
       </c>
       <c r="D47" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -3102,19 +3285,19 @@
         <v>20</v>
       </c>
       <c r="B48" s="1">
-        <v>6875</v>
+        <v>1445</v>
       </c>
       <c r="C48" s="1">
-        <v>1769</v>
+        <v>335</v>
       </c>
       <c r="D48" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3122,13 +3305,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="1">
-        <v>6875</v>
+        <v>1445</v>
       </c>
       <c r="C49" s="1">
-        <v>1779</v>
+        <v>345</v>
       </c>
       <c r="D49" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -3142,13 +3325,13 @@
         <v>22</v>
       </c>
       <c r="B50" s="1">
-        <v>6875</v>
+        <v>1445</v>
       </c>
       <c r="C50" s="1">
-        <v>1857</v>
+        <v>411</v>
       </c>
       <c r="D50" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3158,8 +3341,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>13</v>
+      <c r="A51" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3168,104 +3351,94 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6479</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1481</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6875</v>
+      </c>
+      <c r="C54" s="1">
+        <v>489</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="1">
-        <v>6479</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1640</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="B55" s="1">
+        <v>6875</v>
+      </c>
+      <c r="C55" s="1">
+        <v>465</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="1">
-        <v>6479</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1697</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6479</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1661</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="B56" s="1">
+        <v>6875</v>
+      </c>
+      <c r="C56" s="1">
+        <v>516</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
-        <v>6645</v>
+        <v>6875</v>
       </c>
       <c r="C57" s="1">
-        <v>1310</v>
+        <v>1769</v>
       </c>
       <c r="D57" s="1">
         <v>0.65</v>
@@ -3274,18 +3447,18 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1">
-        <v>6645</v>
+        <v>6875</v>
       </c>
       <c r="C58" s="1">
-        <v>1593</v>
+        <v>1779</v>
       </c>
       <c r="D58" s="1">
         <v>0.65</v>
@@ -3299,13 +3472,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1">
-        <v>6645</v>
+        <v>6875</v>
       </c>
       <c r="C59" s="1">
-        <v>1815</v>
+        <v>1857</v>
       </c>
       <c r="D59" s="1">
         <v>0.65</v>
@@ -3318,44 +3491,44 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="1">
-        <v>6645</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1927</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
+      <c r="A60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="A61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6479</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1481</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1">
-        <v>7262</v>
+        <v>6479</v>
       </c>
       <c r="C62" s="1">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="D62" s="1">
         <v>0.65</v>
@@ -3364,18 +3537,18 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" s="1">
-        <v>7262</v>
+        <v>6479</v>
       </c>
       <c r="C63" s="1">
-        <v>1815</v>
+        <v>1697</v>
       </c>
       <c r="D63" s="1">
         <v>0.65</v>
@@ -3389,129 +3562,139 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6479</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1661</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6645</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1310</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6645</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1593</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="1">
-        <v>7262</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1917</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="1">
-        <v>7262</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1884</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="B68" s="1">
+        <v>6645</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1815</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B69" s="1">
-        <v>419</v>
+        <v>6645</v>
       </c>
       <c r="C69" s="1">
-        <v>88</v>
+        <v>1927</v>
       </c>
       <c r="D69" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E69" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="1">
-        <v>419</v>
-      </c>
-      <c r="C70" s="1">
-        <v>123</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E70" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
+      <c r="A70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
-        <v>419</v>
+        <v>7262</v>
       </c>
       <c r="C71" s="1">
-        <v>94</v>
+        <v>1646</v>
       </c>
       <c r="D71" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E71" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
         <v>-1</v>
@@ -3519,117 +3702,97 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1">
-        <v>419</v>
+        <v>7262</v>
       </c>
       <c r="C72" s="1">
-        <v>114</v>
+        <v>1815</v>
       </c>
       <c r="D72" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E72" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="A73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7262</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1917</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7262</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1884</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B74" s="1">
-        <v>404</v>
-      </c>
-      <c r="C74" s="1">
-        <v>82</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E74" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="1">
-        <v>404</v>
-      </c>
-      <c r="C75" s="1">
-        <v>94</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E75" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="1">
-        <v>404</v>
-      </c>
-      <c r="C76" s="1">
-        <v>117</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E76" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="1">
-        <v>404</v>
-      </c>
-      <c r="C77" s="1">
-        <v>111</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E77" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3638,14 +3801,14 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="1">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C79" s="1">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D79" s="1">
         <v>0.2</v>
@@ -3654,58 +3817,58 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="1">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C80" s="1">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="D80" s="1">
         <v>0.2</v>
       </c>
       <c r="E80" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="1">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C81" s="1">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D81" s="1">
         <v>0.2</v>
       </c>
       <c r="E81" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C82" s="1">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D82" s="1">
         <v>0.2</v>
@@ -3714,68 +3877,68 @@
         <v>-1</v>
       </c>
       <c r="F82" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="A83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="1">
+        <v>419</v>
+      </c>
+      <c r="C83" s="1">
+        <v>94</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B84" s="1">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C84" s="1">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D84" s="1">
         <v>0.2</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F84" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="1">
-        <v>427</v>
-      </c>
-      <c r="C85" s="1">
-        <v>115</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
+      <c r="A85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C86" s="1">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D86" s="1">
         <v>0.2</v>
@@ -3784,104 +3947,114 @@
         <v>-1</v>
       </c>
       <c r="F86" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1">
+        <v>404</v>
+      </c>
+      <c r="C87" s="1">
+        <v>94</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="1">
+        <v>404</v>
+      </c>
+      <c r="C88" s="1">
+        <v>117</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="1">
-        <v>427</v>
-      </c>
-      <c r="C87" s="1">
-        <v>121</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E87" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="B89" s="1">
+        <v>404</v>
+      </c>
+      <c r="C89" s="1">
+        <v>111</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="1">
-        <v>5322</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1178</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
+      <c r="A90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" s="1">
-        <v>5322</v>
+        <v>451</v>
       </c>
       <c r="C91" s="1">
-        <v>1333</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1">
-        <v>5322</v>
+        <v>451</v>
       </c>
       <c r="C92" s="1">
-        <v>1416</v>
+        <v>114</v>
       </c>
       <c r="D92" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
@@ -3889,89 +4062,89 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="1">
+        <v>451</v>
+      </c>
+      <c r="C93" s="1">
+        <v>133</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="1">
-        <v>5322</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1395</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="B94" s="1">
+        <v>451</v>
+      </c>
+      <c r="C94" s="1">
+        <v>119</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" s="1">
-        <v>5298</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="1">
-        <v>5298</v>
+        <v>427</v>
       </c>
       <c r="C96" s="1">
-        <v>1309</v>
+        <v>71</v>
       </c>
       <c r="D96" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B97" s="1">
-        <v>5298</v>
+        <v>427</v>
       </c>
       <c r="C97" s="1">
-        <v>1421</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
@@ -3979,133 +4152,123 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="1">
+        <v>427</v>
+      </c>
+      <c r="C98" s="1">
+        <v>120</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="1">
-        <v>5298</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1308</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="B99" s="1">
+        <v>427</v>
+      </c>
+      <c r="C99" s="1">
+        <v>121</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="1">
-        <v>5343</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1029</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="1">
-        <v>5343</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1286</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
+      <c r="A101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5322</v>
+      </c>
+      <c r="C103" s="1">
+        <v>423</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5322</v>
+      </c>
+      <c r="C104" s="1">
+        <v>356</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="1">
-        <v>5343</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1588</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="1">
-        <v>5343</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1440</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-      <c r="F103" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B105" s="1">
-        <v>5730</v>
+        <v>5322</v>
       </c>
       <c r="C105" s="1">
-        <v>1320</v>
+        <v>399</v>
       </c>
       <c r="D105" s="1">
         <v>0.45</v>
@@ -4114,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4122,10 +4285,10 @@
         <v>20</v>
       </c>
       <c r="B106" s="1">
-        <v>5730</v>
+        <v>5322</v>
       </c>
       <c r="C106" s="1">
-        <v>1466</v>
+        <v>1333</v>
       </c>
       <c r="D106" s="1">
         <v>0.45</v>
@@ -4142,10 +4305,10 @@
         <v>21</v>
       </c>
       <c r="B107" s="1">
-        <v>5730</v>
+        <v>5322</v>
       </c>
       <c r="C107" s="1">
-        <v>1531</v>
+        <v>1416</v>
       </c>
       <c r="D107" s="1">
         <v>0.45</v>
@@ -4162,10 +4325,10 @@
         <v>22</v>
       </c>
       <c r="B108" s="1">
-        <v>5730</v>
+        <v>5322</v>
       </c>
       <c r="C108" s="1">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="D108" s="1">
         <v>0.45</v>
@@ -4178,8 +4341,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>11</v>
+      <c r="A109" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4188,27 +4351,37 @@
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="A110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5298</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1">
-        <v>44533</v>
+        <v>5298</v>
       </c>
       <c r="C111" s="1">
-        <v>10564</v>
+        <v>1309</v>
       </c>
       <c r="D111" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4219,16 +4392,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B112" s="1">
-        <v>44533</v>
+        <v>5298</v>
       </c>
       <c r="C112" s="1">
-        <v>11040</v>
+        <v>1421</v>
       </c>
       <c r="D112" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4239,86 +4412,86 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1">
-        <v>44533</v>
+        <v>5298</v>
       </c>
       <c r="C113" s="1">
-        <v>11264</v>
+        <v>1308</v>
       </c>
       <c r="D113" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" s="1">
-        <v>44533</v>
-      </c>
-      <c r="C114" s="1">
-        <v>11665</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E114" s="1">
-        <v>0</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
+      <c r="A114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="A115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5343</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1">
-        <v>42372</v>
+        <v>5343</v>
       </c>
       <c r="C116" s="1">
-        <v>9981</v>
+        <v>1286</v>
       </c>
       <c r="D116" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B117" s="1">
-        <v>42372</v>
+        <v>5343</v>
       </c>
       <c r="C117" s="1">
-        <v>10108</v>
+        <v>1588</v>
       </c>
       <c r="D117" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4329,86 +4502,86 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1">
-        <v>42372</v>
+        <v>5343</v>
       </c>
       <c r="C118" s="1">
-        <v>10805</v>
+        <v>1440</v>
       </c>
       <c r="D118" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119" s="1">
-        <v>42372</v>
-      </c>
-      <c r="C119" s="1">
-        <v>11478</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1</v>
-      </c>
+      <c r="A119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="A120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="1">
+        <v>5730</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1320</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B121" s="1">
-        <v>42116</v>
+        <v>5730</v>
       </c>
       <c r="C121" s="1">
-        <v>9367</v>
+        <v>1466</v>
       </c>
       <c r="D121" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
       </c>
       <c r="F121" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B122" s="1">
-        <v>42116</v>
+        <v>5730</v>
       </c>
       <c r="C122" s="1">
-        <v>9983</v>
+        <v>1531</v>
       </c>
       <c r="D122" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -4419,47 +4592,37 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B123" s="1">
-        <v>42116</v>
+        <v>5730</v>
       </c>
       <c r="C123" s="1">
-        <v>10907</v>
+        <v>1413</v>
       </c>
       <c r="D123" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="1">
-        <v>42116</v>
-      </c>
-      <c r="C124" s="1">
-        <v>11859</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
+      <c r="A124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4471,144 +4634,154 @@
       <c r="A126" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="1">
-        <v>44831</v>
-      </c>
-      <c r="C126" s="1">
-        <v>10620</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-      <c r="F126" s="1">
-        <v>-1</v>
-      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3521</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B127" s="1">
-        <v>44831</v>
-      </c>
-      <c r="C127" s="1">
-        <v>10848</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="B128" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3376</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="1">
-        <v>44831</v>
-      </c>
-      <c r="C128" s="1">
-        <v>11242</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+      <c r="B129" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3667</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C130" s="1">
+        <v>11040</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C131" s="1">
+        <v>11264</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="1">
-        <v>44831</v>
-      </c>
-      <c r="C129" s="1">
-        <v>12121</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="B132" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C132" s="1">
+        <v>11665</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B133" s="1">
-        <v>16</v>
-      </c>
-      <c r="C133" s="1">
-        <v>7</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E133" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
+      <c r="A133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1">
-        <v>16</v>
+        <v>42372</v>
       </c>
       <c r="C134" s="1">
-        <v>1</v>
+        <v>9981</v>
       </c>
       <c r="D134" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -4619,19 +4792,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B135" s="1">
-        <v>16</v>
+        <v>42372</v>
       </c>
       <c r="C135" s="1">
-        <v>6</v>
+        <v>10108</v>
       </c>
       <c r="D135" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E135" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -4639,322 +4812,316 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="1">
+        <v>42372</v>
+      </c>
+      <c r="C136" s="1">
+        <v>10805</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B136" s="1">
-        <v>16</v>
-      </c>
-      <c r="C136" s="1">
-        <v>2</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E136" s="1">
-        <v>0</v>
-      </c>
-      <c r="F136" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="B137" s="1">
+        <v>42372</v>
+      </c>
+      <c r="C137" s="1">
+        <v>11478</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B138" s="1">
-        <v>18</v>
-      </c>
-      <c r="C138" s="1">
-        <v>4</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E138" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
+      <c r="A138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1">
-        <v>18</v>
+        <v>42116</v>
       </c>
       <c r="C139" s="1">
-        <v>6</v>
+        <v>9367</v>
       </c>
       <c r="D139" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E139" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" s="1">
-        <v>18</v>
+        <v>42116</v>
       </c>
       <c r="C140" s="1">
-        <v>5</v>
+        <v>9983</v>
       </c>
       <c r="D140" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E140" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F140" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42116</v>
+      </c>
+      <c r="C141" s="1">
+        <v>10907</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="1">
-        <v>18</v>
-      </c>
-      <c r="C141" s="1">
-        <v>3</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="B142" s="1">
+        <v>42116</v>
+      </c>
+      <c r="C142" s="1">
+        <v>11859</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B143" s="1">
-        <v>19</v>
-      </c>
-      <c r="C143" s="1">
-        <v>3</v>
-      </c>
-      <c r="D143" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
+      <c r="A143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144" s="1">
-        <v>19</v>
+        <v>44831</v>
       </c>
       <c r="C144" s="1">
-        <v>5</v>
+        <v>10620</v>
       </c>
       <c r="D144" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E144" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F144" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" s="1">
-        <v>19</v>
+        <v>44831</v>
       </c>
       <c r="C145" s="1">
-        <v>3</v>
+        <v>10848</v>
       </c>
       <c r="D145" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
       </c>
       <c r="F145" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44831</v>
+      </c>
+      <c r="C146" s="1">
+        <v>11242</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B146" s="1">
-        <v>19</v>
-      </c>
-      <c r="C146" s="1">
-        <v>8</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E146" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="B147" s="1">
+        <v>44831</v>
+      </c>
+      <c r="C147" s="1">
+        <v>12121</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" s="1">
-        <v>17</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0</v>
-      </c>
-      <c r="F148" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="1">
-        <v>17</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
+      <c r="A149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B150" s="1">
-        <v>17</v>
-      </c>
-      <c r="C150" s="1">
-        <v>8</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E150" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F150" s="1">
-        <v>1</v>
-      </c>
+      <c r="A150" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="1">
-        <v>17</v>
-      </c>
-      <c r="C151" s="1">
-        <v>5</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E151" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F151" s="1">
-        <v>-1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="A152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="1">
+        <v>16</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="A153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="1">
+        <v>16</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
-        <v>19</v>
+      <c r="A154" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B154" s="1">
-        <v>817</v>
+        <v>16</v>
       </c>
       <c r="C154" s="1">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="D154" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -4968,19 +5135,19 @@
         <v>20</v>
       </c>
       <c r="B155" s="1">
-        <v>817</v>
+        <v>16</v>
       </c>
       <c r="C155" s="1">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
       </c>
       <c r="F155" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4988,16 +5155,16 @@
         <v>21</v>
       </c>
       <c r="B156" s="1">
-        <v>817</v>
+        <v>16</v>
       </c>
       <c r="C156" s="1">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="D156" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -5008,13 +5175,13 @@
         <v>22</v>
       </c>
       <c r="B157" s="1">
-        <v>817</v>
+        <v>16</v>
       </c>
       <c r="C157" s="1">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
@@ -5038,16 +5205,16 @@
         <v>19</v>
       </c>
       <c r="B159" s="1">
-        <v>733</v>
+        <v>18</v>
       </c>
       <c r="C159" s="1">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="D159" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E159" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F159" s="1">
         <v>1</v>
@@ -5058,19 +5225,19 @@
         <v>20</v>
       </c>
       <c r="B160" s="1">
-        <v>733</v>
+        <v>18</v>
       </c>
       <c r="C160" s="1">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="D160" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E160" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F160" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5078,19 +5245,19 @@
         <v>21</v>
       </c>
       <c r="B161" s="1">
-        <v>733</v>
+        <v>18</v>
       </c>
       <c r="C161" s="1">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E161" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F161" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5098,13 +5265,13 @@
         <v>22</v>
       </c>
       <c r="B162" s="1">
-        <v>733</v>
+        <v>18</v>
       </c>
       <c r="C162" s="1">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E162" s="1">
         <v>0</v>
@@ -5128,36 +5295,34 @@
         <v>19</v>
       </c>
       <c r="B164" s="1">
-        <v>743</v>
+        <v>19</v>
       </c>
       <c r="C164" s="1">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B165" s="1">
-        <v>743</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D165" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E165" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F165" s="1">
         <v>1</v>
@@ -5168,19 +5333,19 @@
         <v>21</v>
       </c>
       <c r="B166" s="1">
-        <v>743</v>
+        <v>19</v>
       </c>
       <c r="C166" s="1">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E166" s="1">
         <v>0</v>
       </c>
       <c r="F166" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,19 +5353,19 @@
         <v>22</v>
       </c>
       <c r="B167" s="1">
-        <v>743</v>
+        <v>19</v>
       </c>
       <c r="C167" s="1">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="D167" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F167" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5218,19 +5383,19 @@
         <v>19</v>
       </c>
       <c r="B169" s="1">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="C169" s="1">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E169" s="1">
         <v>0</v>
       </c>
       <c r="F169" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5238,36 +5403,34 @@
         <v>20</v>
       </c>
       <c r="B170" s="1">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="C170" s="1">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
       </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
+      <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B171" s="1">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="C171" s="1">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D171" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E171" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F171" s="1">
         <v>1</v>
@@ -5278,16 +5441,16 @@
         <v>22</v>
       </c>
       <c r="B172" s="1">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="C172" s="1">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D172" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E172" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F172" s="1">
         <v>-1</v>
@@ -5295,7 +5458,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5317,490 +5480,488 @@
       <c r="A175" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B175" s="1">
-        <v>5796</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1374</v>
-      </c>
-      <c r="D175" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E175" s="1">
-        <v>0</v>
-      </c>
-      <c r="F175" s="1">
-        <v>1</v>
-      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" s="1">
+        <v>817</v>
+      </c>
+      <c r="C176" s="1">
+        <v>54</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B176" s="1">
-        <v>5796</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1576</v>
-      </c>
-      <c r="D176" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E176" s="1">
-        <v>0</v>
-      </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+      <c r="B177" s="1">
+        <v>817</v>
+      </c>
+      <c r="C177" s="1">
+        <v>54</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B177" s="1">
-        <v>5796</v>
-      </c>
-      <c r="C177" s="1">
-        <v>1573</v>
-      </c>
-      <c r="D177" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-      <c r="F177" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="B178" s="1">
-        <v>5796</v>
+        <v>817</v>
       </c>
       <c r="C178" s="1">
-        <v>1273</v>
+        <v>63</v>
       </c>
       <c r="D178" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E178" s="1">
         <v>0</v>
       </c>
       <c r="F178" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="A179" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="1">
+        <v>817</v>
+      </c>
+      <c r="C179" s="1">
+        <v>228</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B180" s="1">
-        <v>5020</v>
+        <v>817</v>
       </c>
       <c r="C180" s="1">
-        <v>1170</v>
+        <v>237</v>
       </c>
       <c r="D180" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E180" s="1">
         <v>0</v>
       </c>
       <c r="F180" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B181" s="1">
-        <v>5020</v>
+        <v>817</v>
       </c>
       <c r="C181" s="1">
-        <v>1360</v>
+        <v>181</v>
       </c>
       <c r="D181" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E181" s="1">
         <v>0</v>
       </c>
       <c r="F181" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" s="1">
-        <v>5020</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1356</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E182" s="1">
-        <v>0</v>
-      </c>
-      <c r="F182" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B183" s="1">
-        <v>5020</v>
+        <v>733</v>
       </c>
       <c r="C183" s="1">
-        <v>1134</v>
+        <v>197</v>
       </c>
       <c r="D183" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
       </c>
       <c r="F183" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="A184" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="1">
+        <v>733</v>
+      </c>
+      <c r="C184" s="1">
+        <v>192</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B185" s="1">
-        <v>4796</v>
+        <v>733</v>
       </c>
       <c r="C185" s="1">
-        <v>983</v>
+        <v>204</v>
       </c>
       <c r="D185" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E185" s="1">
         <v>0</v>
       </c>
       <c r="F185" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B186" s="1">
-        <v>4796</v>
+        <v>733</v>
       </c>
       <c r="C186" s="1">
-        <v>1195</v>
+        <v>140</v>
       </c>
       <c r="D186" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E186" s="1">
         <v>0</v>
       </c>
       <c r="F186" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B187" s="1">
-        <v>4796</v>
-      </c>
-      <c r="C187" s="1">
-        <v>1360</v>
-      </c>
-      <c r="D187" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E187" s="1">
-        <v>0</v>
-      </c>
-      <c r="F187" s="1">
-        <v>1</v>
-      </c>
+      <c r="A187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B188" s="1">
-        <v>4796</v>
+        <v>743</v>
       </c>
       <c r="C188" s="1">
-        <v>1258</v>
+        <v>155</v>
       </c>
       <c r="D188" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E188" s="1">
         <v>0</v>
       </c>
       <c r="F188" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="A189" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="1">
+        <v>743</v>
+      </c>
+      <c r="C189" s="1">
+        <v>210</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B190" s="1">
-        <v>5280</v>
+        <v>743</v>
       </c>
       <c r="C190" s="1">
-        <v>1129</v>
+        <v>229</v>
       </c>
       <c r="D190" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E190" s="1">
         <v>0</v>
       </c>
       <c r="F190" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B191" s="1">
-        <v>5280</v>
+        <v>743</v>
       </c>
       <c r="C191" s="1">
-        <v>1482</v>
+        <v>149</v>
       </c>
       <c r="D191" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
       </c>
       <c r="F191" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B192" s="1">
-        <v>5280</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1428</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E192" s="1">
-        <v>0</v>
-      </c>
-      <c r="F192" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A192" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="1">
+        <v>741</v>
+      </c>
+      <c r="C193" s="1">
+        <v>161</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1">
+        <v>741</v>
+      </c>
+      <c r="C194" s="1">
+        <v>211</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="1">
+        <v>741</v>
+      </c>
+      <c r="C195" s="1">
+        <v>214</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B193" s="1">
-        <v>5280</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1241</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E193" s="1">
-        <v>0</v>
-      </c>
-      <c r="F193" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+      <c r="B196" s="1">
+        <v>741</v>
+      </c>
+      <c r="C196" s="1">
+        <v>155</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" s="1">
-        <v>30</v>
-      </c>
-      <c r="C197" s="1">
-        <v>12</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E197" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="1">
-        <v>30</v>
-      </c>
-      <c r="C198" s="1">
-        <v>5</v>
-      </c>
-      <c r="D198" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E198" s="1">
-        <v>0</v>
-      </c>
-      <c r="F198" s="1">
-        <v>-1</v>
-      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5796</v>
+      </c>
+      <c r="C200" s="1">
+        <v>413</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>5796</v>
+      </c>
+      <c r="C201" s="1">
+        <v>411</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B199" s="1">
-        <v>30</v>
-      </c>
-      <c r="C199" s="1">
-        <v>7</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E199" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" s="1">
-        <v>30</v>
-      </c>
-      <c r="C200" s="1">
-        <v>6</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E200" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F200" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B202" s="1">
-        <v>22</v>
+        <v>5796</v>
       </c>
       <c r="C202" s="1">
-        <v>3</v>
+        <v>550</v>
       </c>
       <c r="D202" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5808,16 +5969,16 @@
         <v>20</v>
       </c>
       <c r="B203" s="1">
-        <v>22</v>
+        <v>5796</v>
       </c>
       <c r="C203" s="1">
-        <v>5</v>
+        <v>1576</v>
       </c>
       <c r="D203" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E203" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1">
         <v>1</v>
@@ -5828,19 +5989,19 @@
         <v>21</v>
       </c>
       <c r="B204" s="1">
-        <v>22</v>
+        <v>5796</v>
       </c>
       <c r="C204" s="1">
-        <v>7</v>
+        <v>1573</v>
       </c>
       <c r="D204" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E204" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5848,22 +6009,24 @@
         <v>22</v>
       </c>
       <c r="B205" s="1">
-        <v>22</v>
+        <v>5796</v>
       </c>
       <c r="C205" s="1">
-        <v>7</v>
+        <v>1273</v>
       </c>
       <c r="D205" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E205" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F205" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5876,16 +6039,16 @@
         <v>19</v>
       </c>
       <c r="B207" s="1">
-        <v>10</v>
+        <v>5020</v>
       </c>
       <c r="C207" s="1">
-        <v>2</v>
+        <v>1170</v>
       </c>
       <c r="D207" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E207" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="1">
         <v>-1</v>
@@ -5896,19 +6059,19 @@
         <v>20</v>
       </c>
       <c r="B208" s="1">
-        <v>10</v>
+        <v>5020</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
+        <v>1360</v>
       </c>
       <c r="D208" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E208" s="1">
         <v>0</v>
       </c>
       <c r="F208" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,19 +6079,19 @@
         <v>21</v>
       </c>
       <c r="B209" s="1">
-        <v>10</v>
+        <v>5020</v>
       </c>
       <c r="C209" s="1">
-        <v>3</v>
+        <v>1356</v>
       </c>
       <c r="D209" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E209" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5936,24 +6099,24 @@
         <v>22</v>
       </c>
       <c r="B210" s="1">
-        <v>10</v>
+        <v>5020</v>
       </c>
       <c r="C210" s="1">
-        <v>4</v>
+        <v>1134</v>
       </c>
       <c r="D210" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E210" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5966,19 +6129,19 @@
         <v>19</v>
       </c>
       <c r="B212" s="1">
-        <v>14</v>
+        <v>4796</v>
       </c>
       <c r="C212" s="1">
-        <v>5</v>
+        <v>983</v>
       </c>
       <c r="D212" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E212" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F212" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5986,19 +6149,19 @@
         <v>20</v>
       </c>
       <c r="B213" s="1">
-        <v>14</v>
+        <v>4796</v>
       </c>
       <c r="C213" s="1">
-        <v>3</v>
+        <v>1195</v>
       </c>
       <c r="D213" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E213" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -6006,40 +6169,44 @@
         <v>21</v>
       </c>
       <c r="B214" s="1">
-        <v>14</v>
+        <v>4796</v>
       </c>
       <c r="C214" s="1">
-        <v>3</v>
+        <v>1360</v>
       </c>
       <c r="D214" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E214" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F214" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B215" s="1">
-        <v>14</v>
+        <v>4796</v>
       </c>
       <c r="C215" s="1">
-        <v>3</v>
+        <v>1258</v>
       </c>
       <c r="D215" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E215" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F215" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
-        <v>10</v>
+      <c r="A216" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6048,27 +6215,37 @@
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="A217" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="1">
+        <v>5280</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1129</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B218" s="1">
-        <v>400</v>
+        <v>5280</v>
       </c>
       <c r="C218" s="1">
-        <v>69</v>
+        <v>1482</v>
       </c>
       <c r="D218" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E218" s="1">
         <v>0</v>
@@ -6079,67 +6256,57 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B219" s="1">
-        <v>400</v>
+        <v>5280</v>
       </c>
       <c r="C219" s="1">
-        <v>103</v>
+        <v>1428</v>
       </c>
       <c r="D219" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
       </c>
       <c r="F219" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B220" s="1">
-        <v>400</v>
+        <v>5280</v>
       </c>
       <c r="C220" s="1">
-        <v>107</v>
+        <v>1241</v>
       </c>
       <c r="D220" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
       </c>
       <c r="F220" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B221" s="1">
-        <v>400</v>
-      </c>
-      <c r="C221" s="1">
-        <v>121</v>
-      </c>
-      <c r="D221" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E221" s="1">
-        <v>0</v>
-      </c>
-      <c r="F221" s="1">
-        <v>1</v>
-      </c>
+      <c r="A221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
-        <v>13</v>
+      <c r="A222" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6148,107 +6315,97 @@
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B223" s="1">
-        <v>387</v>
-      </c>
-      <c r="C223" s="1">
-        <v>110</v>
-      </c>
-      <c r="D223" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E223" s="1">
-        <v>0</v>
-      </c>
-      <c r="F223" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="1">
+        <v>30</v>
+      </c>
+      <c r="C225" s="1">
+        <v>4</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B224" s="1">
-        <v>387</v>
-      </c>
-      <c r="C224" s="1">
-        <v>80</v>
-      </c>
-      <c r="D224" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E224" s="1">
-        <v>0</v>
-      </c>
-      <c r="F224" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
+      <c r="B226" s="1">
+        <v>30</v>
+      </c>
+      <c r="C226" s="1">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B225" s="1">
-        <v>387</v>
-      </c>
-      <c r="C225" s="1">
-        <v>100</v>
-      </c>
-      <c r="D225" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E225" s="1">
-        <v>0</v>
-      </c>
-      <c r="F225" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B226" s="1">
-        <v>387</v>
-      </c>
-      <c r="C226" s="1">
-        <v>97</v>
-      </c>
-      <c r="D226" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E226" s="1">
-        <v>0</v>
-      </c>
-      <c r="F226" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="B227" s="1">
+        <v>30</v>
+      </c>
+      <c r="C227" s="1">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B228" s="1">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="C228" s="1">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D228" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E228" s="1">
         <v>0</v>
@@ -6259,19 +6416,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B229" s="1">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="C229" s="1">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D229" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E229" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F229" s="1">
         <v>1</v>
@@ -6279,89 +6436,89 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B230" s="1">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="C230" s="1">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D230" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E230" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F230" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="1">
         <v>22</v>
       </c>
-      <c r="B231" s="1">
-        <v>319</v>
-      </c>
-      <c r="C231" s="1">
-        <v>85</v>
-      </c>
-      <c r="D231" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E231" s="1">
-        <v>0</v>
-      </c>
-      <c r="F231" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="C232" s="1">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B233" s="1">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="C233" s="1">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D233" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E233" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F233" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="C234" s="1">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D234" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E234" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F234" s="1">
         <v>1</v>
@@ -6369,79 +6526,87 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B235" s="1">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="C235" s="1">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D235" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E235" s="1">
-        <v>0</v>
-      </c>
-      <c r="F235" s="1">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B236" s="1">
-        <v>292</v>
-      </c>
-      <c r="C236" s="1">
-        <v>82</v>
-      </c>
-      <c r="D236" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E236" s="1">
-        <v>0</v>
-      </c>
-      <c r="F236" s="1">
-        <v>1</v>
-      </c>
+      <c r="A236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="A237" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="1">
+        <v>10</v>
+      </c>
+      <c r="C237" s="1">
+        <v>2</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E237" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="A238" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" s="1">
+        <v>10</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B239" s="1">
-        <v>2706</v>
+        <v>10</v>
       </c>
       <c r="C239" s="1">
-        <v>595</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E239" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F239" s="1">
         <v>1</v>
@@ -6449,157 +6614,133 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B240" s="1">
-        <v>2706</v>
+        <v>10</v>
       </c>
       <c r="C240" s="1">
-        <v>667</v>
+        <v>4</v>
       </c>
       <c r="D240" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E240" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F240" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B241" s="1">
-        <v>2706</v>
-      </c>
-      <c r="C241" s="1">
-        <v>743</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E241" s="1">
-        <v>0</v>
-      </c>
-      <c r="F241" s="1">
-        <v>1</v>
-      </c>
+      <c r="A241" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B242" s="1">
-        <v>2706</v>
+        <v>14</v>
       </c>
       <c r="C242" s="1">
-        <v>701</v>
+        <v>5</v>
       </c>
       <c r="D242" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E242" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F242" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="A243" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" s="1">
+        <v>14</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E243" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F243" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B244" s="1">
-        <v>2370</v>
+        <v>14</v>
       </c>
       <c r="C244" s="1">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D244" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E244" s="1">
-        <v>0</v>
-      </c>
-      <c r="F244" s="1">
-        <v>-1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B245" s="1">
-        <v>2370</v>
+        <v>14</v>
       </c>
       <c r="C245" s="1">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="D245" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E245" s="1">
-        <v>0</v>
-      </c>
-      <c r="F245" s="1">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F245" s="1"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B246" s="1">
-        <v>2370</v>
-      </c>
-      <c r="C246" s="1">
-        <v>596</v>
-      </c>
-      <c r="D246" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E246" s="1">
-        <v>0</v>
-      </c>
-      <c r="F246" s="1">
-        <v>1</v>
-      </c>
+      <c r="A246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B247" s="1">
-        <v>2370</v>
-      </c>
-      <c r="C247" s="1">
-        <v>642</v>
-      </c>
-      <c r="D247" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E247" s="1">
-        <v>0</v>
-      </c>
-      <c r="F247" s="1">
-        <v>1</v>
-      </c>
+      <c r="A247" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
-        <v>14</v>
+      <c r="A248" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6608,37 +6749,37 @@
       <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B249" s="1">
-        <v>1993</v>
+        <v>400</v>
       </c>
       <c r="C249" s="1">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="D249" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E249" s="1">
         <v>0</v>
       </c>
       <c r="F249" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B250" s="1">
-        <v>1993</v>
+        <v>400</v>
       </c>
       <c r="C250" s="1">
-        <v>504</v>
+        <v>28</v>
       </c>
       <c r="D250" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E250" s="1">
         <v>0</v>
@@ -6648,37 +6789,37 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B251" s="1">
-        <v>1993</v>
+        <v>400</v>
       </c>
       <c r="C251" s="1">
-        <v>509</v>
+        <v>27</v>
       </c>
       <c r="D251" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
       </c>
       <c r="F251" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B252" s="1">
-        <v>1993</v>
+        <v>400</v>
       </c>
       <c r="C252" s="1">
-        <v>538</v>
+        <v>103</v>
       </c>
       <c r="D252" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
@@ -6688,118 +6829,138 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="A253" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="1">
+        <v>400</v>
+      </c>
+      <c r="C253" s="1">
+        <v>107</v>
+      </c>
+      <c r="D253" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B254" s="1">
-        <v>2090</v>
+        <v>400</v>
       </c>
       <c r="C254" s="1">
-        <v>488</v>
+        <v>121</v>
       </c>
       <c r="D254" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E254" s="1">
         <v>0</v>
       </c>
       <c r="F254" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B255" s="1">
-        <v>2090</v>
-      </c>
-      <c r="C255" s="1">
-        <v>498</v>
-      </c>
-      <c r="D255" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E255" s="1">
-        <v>0</v>
-      </c>
-      <c r="F255" s="1">
-        <v>1</v>
-      </c>
+      <c r="A255" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B256" s="1">
-        <v>2090</v>
+        <v>387</v>
       </c>
       <c r="C256" s="1">
-        <v>531</v>
+        <v>110</v>
       </c>
       <c r="D256" s="1">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="E256" s="1">
         <v>0</v>
       </c>
       <c r="F256" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257" s="1">
+        <v>387</v>
+      </c>
+      <c r="C257" s="1">
+        <v>80</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="1">
+        <v>387</v>
+      </c>
+      <c r="C258" s="1">
+        <v>100</v>
+      </c>
+      <c r="D258" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B257" s="1">
-        <v>2090</v>
-      </c>
-      <c r="C257" s="1">
-        <v>573</v>
-      </c>
-      <c r="D257" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E257" s="1">
-        <v>0</v>
-      </c>
-      <c r="F257" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="B259" s="1">
+        <v>387</v>
+      </c>
+      <c r="C259" s="1">
+        <v>97</v>
+      </c>
+      <c r="D259" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6812,19 +6973,19 @@
         <v>19</v>
       </c>
       <c r="B261" s="1">
-        <v>163.25</v>
+        <v>319</v>
       </c>
       <c r="C261" s="1">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D261" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E261" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F261" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6832,16 +6993,16 @@
         <v>20</v>
       </c>
       <c r="B262" s="1">
-        <v>163.25</v>
+        <v>319</v>
       </c>
       <c r="C262" s="1">
-        <v>43.5</v>
+        <v>86</v>
       </c>
       <c r="D262" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E262" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F262" s="1">
         <v>1</v>
@@ -6852,19 +7013,19 @@
         <v>21</v>
       </c>
       <c r="B263" s="1">
-        <v>163.25</v>
+        <v>319</v>
       </c>
       <c r="C263" s="1">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D263" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E263" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F263" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6872,24 +7033,24 @@
         <v>22</v>
       </c>
       <c r="B264" s="1">
-        <v>163.25</v>
+        <v>319</v>
       </c>
       <c r="C264" s="1">
-        <v>43.75</v>
+        <v>85</v>
       </c>
       <c r="D264" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E264" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F264" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6902,16 +7063,16 @@
         <v>19</v>
       </c>
       <c r="B266" s="1">
-        <v>155.25</v>
+        <v>292</v>
       </c>
       <c r="C266" s="1">
-        <v>33.5</v>
+        <v>67</v>
       </c>
       <c r="D266" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E266" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F266" s="1">
         <v>-1</v>
@@ -6922,16 +7083,16 @@
         <v>20</v>
       </c>
       <c r="B267" s="1">
-        <v>155.25</v>
+        <v>292</v>
       </c>
       <c r="C267" s="1">
-        <v>37.25</v>
+        <v>69</v>
       </c>
       <c r="D267" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E267" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F267" s="1">
         <v>1</v>
@@ -6942,16 +7103,16 @@
         <v>21</v>
       </c>
       <c r="B268" s="1">
-        <v>155.25</v>
+        <v>292</v>
       </c>
       <c r="C268" s="1">
-        <v>43.25</v>
+        <v>74</v>
       </c>
       <c r="D268" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E268" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F268" s="1">
         <v>1</v>
@@ -6962,24 +7123,24 @@
         <v>22</v>
       </c>
       <c r="B269" s="1">
-        <v>155.25</v>
+        <v>292</v>
       </c>
       <c r="C269" s="1">
-        <v>41.25</v>
+        <v>82</v>
       </c>
       <c r="D269" s="1">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="E269" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
-        <v>14</v>
+      <c r="A270" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6988,130 +7149,120 @@
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B271" s="1">
-        <v>160.25</v>
-      </c>
-      <c r="C271" s="1">
-        <v>31</v>
-      </c>
-      <c r="D271" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E271" s="1">
-        <v>0</v>
-      </c>
-      <c r="F271" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A271" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273" s="1">
+        <v>2706</v>
+      </c>
+      <c r="C273" s="1">
+        <v>197</v>
+      </c>
+      <c r="D273" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B272" s="1">
-        <v>160.25</v>
-      </c>
-      <c r="C272" s="1">
-        <v>42.75</v>
-      </c>
-      <c r="D272" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E272" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F272" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
+      <c r="B274" s="1">
+        <v>2706</v>
+      </c>
+      <c r="C274" s="1">
+        <v>194</v>
+      </c>
+      <c r="D274" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B273" s="1">
-        <v>160.25</v>
-      </c>
-      <c r="C273" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="D273" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E273" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F273" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B274" s="1">
-        <v>160.25</v>
-      </c>
-      <c r="C274" s="1">
-        <v>42.75</v>
-      </c>
-      <c r="D274" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E274" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F274" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
+      <c r="B275" s="1">
+        <v>2706</v>
+      </c>
+      <c r="C275" s="1">
+        <v>204</v>
+      </c>
+      <c r="D275" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B276" s="1">
-        <v>158</v>
+        <v>2706</v>
       </c>
       <c r="C276" s="1">
-        <v>29.5</v>
+        <v>667</v>
       </c>
       <c r="D276" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E276" s="1">
         <v>0</v>
       </c>
       <c r="F276" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B277" s="1">
-        <v>158</v>
+        <v>2706</v>
       </c>
       <c r="C277" s="1">
-        <v>37.25</v>
+        <v>743</v>
       </c>
       <c r="D277" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E277" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="1">
         <v>1</v>
@@ -7119,76 +7270,86 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B278" s="1">
-        <v>158</v>
+        <v>2706</v>
       </c>
       <c r="C278" s="1">
-        <v>44.75</v>
+        <v>701</v>
       </c>
       <c r="D278" s="1">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="E278" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F278" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B279" s="1">
-        <v>158</v>
-      </c>
-      <c r="C279" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="D279" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E279" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F279" s="1">
-        <v>1</v>
-      </c>
+      <c r="A279" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
+      <c r="A280" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2370</v>
+      </c>
+      <c r="C280" s="1">
+        <v>554</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
+      <c r="A281" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2370</v>
+      </c>
+      <c r="C281" s="1">
+        <v>578</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B282" s="1">
-        <v>1953.25</v>
+        <v>2370</v>
       </c>
       <c r="C282" s="1">
-        <v>425.25</v>
+        <v>596</v>
       </c>
       <c r="D282" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E282" s="1">
         <v>0</v>
@@ -7199,16 +7360,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B283" s="1">
-        <v>1953.25</v>
+        <v>2370</v>
       </c>
       <c r="C283" s="1">
-        <v>492</v>
+        <v>642</v>
       </c>
       <c r="D283" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E283" s="1">
         <v>0</v>
@@ -7218,37 +7379,27 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B284" s="1">
-        <v>1953.25</v>
-      </c>
-      <c r="C284" s="1">
-        <v>521.5</v>
-      </c>
-      <c r="D284" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E284" s="1">
-        <v>0</v>
-      </c>
-      <c r="F284" s="1">
-        <v>1</v>
-      </c>
+      <c r="A284" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B285" s="1">
-        <v>1953.25</v>
+        <v>1993</v>
       </c>
       <c r="C285" s="1">
-        <v>514.5</v>
+        <v>442</v>
       </c>
       <c r="D285" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E285" s="1">
         <v>0</v>
@@ -7258,87 +7409,87 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+      <c r="A286" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C286" s="1">
+        <v>504</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B287" s="1">
-        <v>1911.5</v>
+        <v>1993</v>
       </c>
       <c r="C287" s="1">
-        <v>466.25</v>
+        <v>509</v>
       </c>
       <c r="D287" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E287" s="1">
         <v>0</v>
       </c>
       <c r="F287" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B288" s="1">
-        <v>1911.5</v>
+        <v>1993</v>
       </c>
       <c r="C288" s="1">
-        <v>463.5</v>
+        <v>538</v>
       </c>
       <c r="D288" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E288" s="1">
         <v>0</v>
       </c>
       <c r="F288" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B289" s="1">
-        <v>1911.5</v>
-      </c>
-      <c r="C289" s="1">
-        <v>509</v>
-      </c>
-      <c r="D289" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E289" s="1">
-        <v>0</v>
-      </c>
-      <c r="F289" s="1">
-        <v>1</v>
-      </c>
+      <c r="A289" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B290" s="1">
-        <v>1911.5</v>
+        <v>2090</v>
       </c>
       <c r="C290" s="1">
-        <v>472.75</v>
+        <v>488</v>
       </c>
       <c r="D290" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E290" s="1">
         <v>0</v>
@@ -7348,47 +7499,57 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="A291" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291" s="1">
+        <v>2090</v>
+      </c>
+      <c r="C291" s="1">
+        <v>498</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B292" s="1">
-        <v>1916.25</v>
+        <v>2090</v>
       </c>
       <c r="C292" s="1">
-        <v>368.5</v>
+        <v>531</v>
       </c>
       <c r="D292" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E292" s="1">
         <v>0</v>
       </c>
       <c r="F292" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B293" s="1">
-        <v>1916.25</v>
+        <v>2090</v>
       </c>
       <c r="C293" s="1">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="D293" s="1">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
@@ -7398,48 +7559,28 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B294" s="1">
-        <v>1916.25</v>
-      </c>
-      <c r="C294" s="1">
-        <v>564.25</v>
-      </c>
-      <c r="D294" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E294" s="1">
-        <v>0</v>
-      </c>
-      <c r="F294" s="1">
-        <v>1</v>
-      </c>
+      <c r="A294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B295" s="1">
-        <v>1916.25</v>
-      </c>
-      <c r="C295" s="1">
-        <v>506.5</v>
-      </c>
-      <c r="D295" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E295" s="1">
-        <v>0</v>
-      </c>
-      <c r="F295" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A295" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7451,474 +7592,1264 @@
       <c r="A297" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B297" s="1">
-        <v>2052</v>
-      </c>
-      <c r="C297" s="1">
-        <v>475.5</v>
-      </c>
-      <c r="D297" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E297" s="1">
-        <v>0</v>
-      </c>
-      <c r="F297" s="1">
-        <v>-1</v>
-      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="C298" s="1">
+        <v>16</v>
+      </c>
+      <c r="D298" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E298" s="1">
+        <v>0</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B298" s="1">
-        <v>2052</v>
-      </c>
-      <c r="C298" s="1">
-        <v>520.25</v>
-      </c>
-      <c r="D298" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E298" s="1">
-        <v>0</v>
-      </c>
-      <c r="F298" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
+      <c r="B299" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="C299" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E299" s="1">
+        <v>0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B299" s="1">
-        <v>2052</v>
-      </c>
-      <c r="C299" s="1">
-        <v>541</v>
-      </c>
-      <c r="D299" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E299" s="1">
-        <v>0</v>
-      </c>
-      <c r="F299" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="B300" s="1">
-        <v>2052</v>
+        <v>163.25</v>
       </c>
       <c r="C300" s="1">
-        <v>515.25</v>
+        <v>12.5</v>
       </c>
       <c r="D300" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E300" s="1">
         <v>0</v>
       </c>
       <c r="F300" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
+      <c r="A301" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B301" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="C301" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E301" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="A302" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" s="1">
+        <v>163.25</v>
+      </c>
+      <c r="C302" s="1">
+        <v>36</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E302" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F302" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B303" s="1">
-        <v>14977.5</v>
+        <v>163.25</v>
       </c>
       <c r="C303" s="1">
-        <v>3500.75</v>
+        <v>43.75</v>
       </c>
       <c r="D303" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E303" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F303" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B304" s="1">
-        <v>14977.5</v>
-      </c>
-      <c r="C304" s="1">
-        <v>3763</v>
-      </c>
-      <c r="D304" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E304" s="1">
-        <v>0</v>
-      </c>
-      <c r="F304" s="1">
-        <v>1</v>
-      </c>
+      <c r="A304" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B305" s="1">
-        <v>14977.5</v>
+        <v>155.25</v>
       </c>
       <c r="C305" s="1">
-        <v>3839.75</v>
+        <v>33.5</v>
       </c>
       <c r="D305" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E305" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F305" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B306" s="1">
-        <v>14977.5</v>
+        <v>155.25</v>
       </c>
       <c r="C306" s="1">
-        <v>3874</v>
+        <v>37.25</v>
       </c>
       <c r="D306" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E306" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F306" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
+      <c r="A307" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B307" s="1">
+        <v>155.25</v>
+      </c>
+      <c r="C307" s="1">
+        <v>43.25</v>
+      </c>
+      <c r="D307" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E307" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B308" s="1">
-        <v>14060.25</v>
+        <v>155.25</v>
       </c>
       <c r="C308" s="1">
-        <v>3296.5</v>
+        <v>41.25</v>
       </c>
       <c r="D308" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E308" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F308" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B309" s="1">
-        <v>14060.25</v>
-      </c>
-      <c r="C309" s="1">
-        <v>3421.5</v>
-      </c>
-      <c r="D309" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E309" s="1">
-        <v>0</v>
-      </c>
-      <c r="F309" s="1">
-        <v>1</v>
-      </c>
+      <c r="A309" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B310" s="1">
-        <v>14060.25</v>
+        <v>160.25</v>
       </c>
       <c r="C310" s="1">
-        <v>3613.5</v>
+        <v>31</v>
       </c>
       <c r="D310" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E310" s="1">
         <v>0</v>
       </c>
       <c r="F310" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B311" s="1">
-        <v>14060.25</v>
+        <v>160.25</v>
       </c>
       <c r="C311" s="1">
-        <v>3728.75</v>
+        <v>42.75</v>
       </c>
       <c r="D311" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E311" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F311" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="A312" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B312" s="1">
+        <v>160.25</v>
+      </c>
+      <c r="C312" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="D312" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E312" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B313" s="1">
-        <v>13887.5</v>
+        <v>160.25</v>
       </c>
       <c r="C313" s="1">
-        <v>3025.5</v>
+        <v>42.75</v>
       </c>
       <c r="D313" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E313" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F313" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B314" s="1">
-        <v>13887.5</v>
-      </c>
-      <c r="C314" s="1">
-        <v>3318.75</v>
-      </c>
-      <c r="D314" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E314" s="1">
-        <v>0</v>
-      </c>
-      <c r="F314" s="1">
-        <v>1</v>
-      </c>
+      <c r="A314" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B315" s="1">
-        <v>13887.5</v>
+        <v>158</v>
       </c>
       <c r="C315" s="1">
-        <v>3647.75</v>
+        <v>29.5</v>
       </c>
       <c r="D315" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E315" s="1">
         <v>0</v>
       </c>
       <c r="F315" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B316" s="1">
-        <v>13887.5</v>
+        <v>158</v>
       </c>
       <c r="C316" s="1">
-        <v>3895.5</v>
+        <v>37.25</v>
       </c>
       <c r="D316" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E316" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F316" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
+      <c r="A317" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317" s="1">
+        <v>158</v>
+      </c>
+      <c r="C317" s="1">
+        <v>44.75</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E317" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B318" s="1">
-        <v>14865.75</v>
+        <v>158</v>
       </c>
       <c r="C318" s="1">
-        <v>3470.75</v>
+        <v>46.5</v>
       </c>
       <c r="D318" s="1">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="E318" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F318" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B319" s="1">
-        <v>14865.75</v>
-      </c>
-      <c r="C319" s="1">
-        <v>3660.75</v>
-      </c>
-      <c r="D319" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E319" s="1">
-        <v>0</v>
-      </c>
-      <c r="F319" s="1">
-        <v>1</v>
-      </c>
+      <c r="A319" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B320" s="1">
-        <v>14865.75</v>
-      </c>
-      <c r="C320" s="1">
-        <v>3779.5</v>
-      </c>
-      <c r="D320" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E320" s="1">
-        <v>0</v>
-      </c>
-      <c r="F320" s="1">
-        <v>1</v>
-      </c>
+      <c r="A320" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C322" s="1">
+        <v>146</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E322" s="1">
+        <v>0</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C323" s="1">
+        <v>131.25</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E323" s="1">
+        <v>0</v>
+      </c>
+      <c r="F323" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C324" s="1">
+        <v>148</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E324" s="1">
+        <v>0</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C325" s="1">
+        <v>492</v>
+      </c>
+      <c r="D325" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E325" s="1">
+        <v>0</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C326" s="1">
+        <v>521.5</v>
+      </c>
+      <c r="D326" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E326" s="1">
+        <v>0</v>
+      </c>
+      <c r="F326" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B327" s="1">
+        <v>1953.25</v>
+      </c>
+      <c r="C327" s="1">
+        <v>514.5</v>
+      </c>
+      <c r="D327" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0</v>
+      </c>
+      <c r="F327" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1911.5</v>
+      </c>
+      <c r="C329" s="1">
+        <v>466.25</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E329" s="1">
+        <v>0</v>
+      </c>
+      <c r="F329" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1911.5</v>
+      </c>
+      <c r="C330" s="1">
+        <v>463.5</v>
+      </c>
+      <c r="D330" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E330" s="1">
+        <v>0</v>
+      </c>
+      <c r="F330" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1911.5</v>
+      </c>
+      <c r="C331" s="1">
+        <v>509</v>
+      </c>
+      <c r="D331" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E331" s="1">
+        <v>0</v>
+      </c>
+      <c r="F331" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1911.5</v>
+      </c>
+      <c r="C332" s="1">
+        <v>472.75</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E332" s="1">
+        <v>0</v>
+      </c>
+      <c r="F332" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1916.25</v>
+      </c>
+      <c r="C334" s="1">
+        <v>368.5</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E334" s="1">
+        <v>0</v>
+      </c>
+      <c r="F334" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1916.25</v>
+      </c>
+      <c r="C335" s="1">
+        <v>477</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E335" s="1">
+        <v>0</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1916.25</v>
+      </c>
+      <c r="C336" s="1">
+        <v>564.25</v>
+      </c>
+      <c r="D336" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E336" s="1">
+        <v>0</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1916.25</v>
+      </c>
+      <c r="C337" s="1">
+        <v>506.5</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E337" s="1">
+        <v>0</v>
+      </c>
+      <c r="F337" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2052</v>
+      </c>
+      <c r="C339" s="1">
+        <v>475.5</v>
+      </c>
+      <c r="D339" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E339" s="1">
+        <v>0</v>
+      </c>
+      <c r="F339" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2052</v>
+      </c>
+      <c r="C340" s="1">
+        <v>520.25</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E340" s="1">
+        <v>0</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2052</v>
+      </c>
+      <c r="C341" s="1">
+        <v>541</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E341" s="1">
+        <v>0</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B342" s="1">
+        <v>2052</v>
+      </c>
+      <c r="C342" s="1">
+        <v>515.25</v>
+      </c>
+      <c r="D342" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E342" s="1">
+        <v>0</v>
+      </c>
+      <c r="F342" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B346" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C346" s="1">
+        <v>1155</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E346" s="1">
+        <v>0</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B347" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1111.5</v>
+      </c>
+      <c r="D347" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E347" s="1">
+        <v>0</v>
+      </c>
+      <c r="F347" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1234.25</v>
+      </c>
+      <c r="D348" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E348" s="1">
+        <v>0</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C349" s="1">
+        <v>3763</v>
+      </c>
+      <c r="D349" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E349" s="1">
+        <v>0</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C350" s="1">
+        <v>3839.75</v>
+      </c>
+      <c r="D350" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E350" s="1">
+        <v>0</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B351" s="1">
+        <v>14977.5</v>
+      </c>
+      <c r="C351" s="1">
+        <v>3874</v>
+      </c>
+      <c r="D351" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E351" s="1">
+        <v>0</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B353" s="1">
+        <v>14060.25</v>
+      </c>
+      <c r="C353" s="1">
+        <v>3296.5</v>
+      </c>
+      <c r="D353" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E353" s="1">
+        <v>0</v>
+      </c>
+      <c r="F353" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B354" s="1">
+        <v>14060.25</v>
+      </c>
+      <c r="C354" s="1">
+        <v>3421.5</v>
+      </c>
+      <c r="D354" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E354" s="1">
+        <v>0</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B355" s="1">
+        <v>14060.25</v>
+      </c>
+      <c r="C355" s="1">
+        <v>3613.5</v>
+      </c>
+      <c r="D355" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E355" s="1">
+        <v>0</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="1">
+        <v>14060.25</v>
+      </c>
+      <c r="C356" s="1">
+        <v>3728.75</v>
+      </c>
+      <c r="D356" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E356" s="1">
+        <v>0</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="1">
+        <v>13887.5</v>
+      </c>
+      <c r="C358" s="1">
+        <v>3025.5</v>
+      </c>
+      <c r="D358" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E358" s="1">
+        <v>0</v>
+      </c>
+      <c r="F358" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B359" s="1">
+        <v>13887.5</v>
+      </c>
+      <c r="C359" s="1">
+        <v>3318.75</v>
+      </c>
+      <c r="D359" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E359" s="1">
+        <v>0</v>
+      </c>
+      <c r="F359" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360" s="1">
+        <v>13887.5</v>
+      </c>
+      <c r="C360" s="1">
+        <v>3647.75</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" s="1">
+        <v>13887.5</v>
+      </c>
+      <c r="C361" s="1">
+        <v>3895.5</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E361" s="1">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" s="1">
         <v>14865.75</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C363" s="1">
+        <v>3470.75</v>
+      </c>
+      <c r="D363" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E363" s="1">
+        <v>0</v>
+      </c>
+      <c r="F363" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B364" s="1">
+        <v>14865.75</v>
+      </c>
+      <c r="C364" s="1">
+        <v>3660.75</v>
+      </c>
+      <c r="D364" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E364" s="1">
+        <v>0</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365" s="1">
+        <v>14865.75</v>
+      </c>
+      <c r="C365" s="1">
+        <v>3779.5</v>
+      </c>
+      <c r="D365" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E365" s="1">
+        <v>0</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" s="1">
+        <v>14865.75</v>
+      </c>
+      <c r="C366" s="1">
         <v>3954.75</v>
       </c>
-      <c r="D321" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E321" s="1">
-        <v>0</v>
-      </c>
-      <c r="F321" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
+      <c r="D366" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B367" s="1">
         <v>265043</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C367" s="1">
         <v>265043</v>
       </c>
-      <c r="D322" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E322" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F322" s="1">
+      <c r="D367" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E367" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F367" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="E2:E322">
+  <conditionalFormatting pivot="1" sqref="E2:E367">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3TrafficLights2" showValue="0">
         <cfvo type="num" val="-1"/>
@@ -7927,7 +8858,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F2:F322">
+  <conditionalFormatting pivot="1" sqref="F2:F367">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Arrows" showValue="0">
         <cfvo type="num" val="-1"/>
